--- a/Complement-MM-inti-Menu/ig/PN13-FHIR-prescmed-practitioner-identite-conceptmap.xlsx
+++ b/Complement-MM-inti-Menu/ig/PN13-FHIR-prescmed-practitioner-identite-conceptmap.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T13:54:51+00:00</t>
+    <t>2024-08-13T14:23:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
